--- a/biology/Biologie cellulaire et moléculaire/Footprinting_de_l'ADN/Footprinting_de_l'ADN.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Footprinting_de_l'ADN/Footprinting_de_l'ADN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Footprinting_de_l%27ADN</t>
+          <t>Footprinting_de_l'ADN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le footprint ou footprinting de l'ADN est une technique de biologie moléculaire permettant l'identification des protéines et facteurs de transcription se fixant sur une séquence de l'ADN[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le footprint ou footprinting de l'ADN est une technique de biologie moléculaire permettant l'identification des protéines et facteurs de transcription se fixant sur une séquence de l'ADN.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Footprinting_de_l%27ADN</t>
+          <t>Footprinting_de_l'ADN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette technique se fait en plusieurs étapes :
 Amplification d'ADN par PCR,
@@ -519,7 +533,7 @@
 Incubation de l'ADN amplifié avec des protéines d'intérêt,
 Digestion ménagée par une enzyme de type DNAse I (en présence de Ca2+. La réaction sera stoppée avec de l'EDTA (un chélateur de cations permettant d'inhiber et donc de stopper le travail de la nucléase),
 Analyse de la longueur des fragments (réalisée par des automates séquenceurs),
-Analyse du gel (de polyacrylamide) en conditions dénaturantes (présence de sodium dodécyl sulfate, par exemple)[2][1].</t>
+Analyse du gel (de polyacrylamide) en conditions dénaturantes (présence de sodium dodécyl sulfate, par exemple).</t>
         </is>
       </c>
     </row>
